--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -43,19 +43,25 @@
   <si>
     <t>6hrs</t>
   </si>
+  <si>
+    <t>Work item handler concept.</t>
+  </si>
+  <si>
+    <t>7hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,14 +87,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,14 +102,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +126,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,18 +169,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,16 +193,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,9 +207,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,13 +229,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -252,7 +251,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +269,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,19 +365,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,31 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,103 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,6 +576,60 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,21 +649,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -620,50 +658,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,148 +680,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -846,7 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1169,7 +1168,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1231,9 +1230,15 @@
       <c r="C5" s="13">
         <v>44441</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -49,17 +49,23 @@
   <si>
     <t>7hrs</t>
   </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Core java and algorithms.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -86,13 +92,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -102,14 +101,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,21 +125,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,6 +162,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -185,16 +177,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,6 +200,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -229,6 +228,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -251,7 +257,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,25 +383,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,145 +425,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,11 +586,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,17 +625,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,35 +664,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,148 +686,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -845,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,7 +1174,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1241,11 +1247,21 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13">
+        <v>44442</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -55,15 +55,18 @@
   <si>
     <t>Core java and algorithms.</t>
   </si>
+  <si>
+    <t>Interview Preparation:Spring</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
@@ -92,16 +95,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,17 +123,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,6 +186,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -191,29 +223,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -228,13 +238,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -257,7 +260,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +290,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,19 +356,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,25 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,49 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,31 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,19 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,23 +631,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,8 +655,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,148 +689,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,7 +1177,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1264,11 +1267,21 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13">
+        <v>44445</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
-  <si>
-    <t>SCHWALL WEEKLY TIMESHEET</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>SlNo</t>
   </si>
@@ -58,15 +55,33 @@
   <si>
     <t>Interview Preparation:Spring</t>
   </si>
+  <si>
+    <t>Spring Boot examples</t>
+  </si>
+  <si>
+    <t>5hrs</t>
+  </si>
+  <si>
+    <t>Drools concepts.</t>
+  </si>
+  <si>
+    <t>Sub-process and event-handling.</t>
+  </si>
+  <si>
+    <t>Constructor with examples.</t>
+  </si>
+  <si>
+    <t>SCHWALL WEEKLY TIMESHEET</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
@@ -96,36 +111,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,9 +132,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,8 +194,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,17 +211,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,9 +231,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,7 +275,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,115 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,13 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,37 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +600,15 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,8 +655,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,30 +693,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -689,148 +704,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1177,7 +1192,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1190,9 +1205,7 @@
   <sheetData>
     <row r="1" ht="15.25"/>
     <row r="2" ht="21" spans="2:6">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1200,19 +1213,19 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -1223,13 +1236,13 @@
         <v>44440</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -1240,13 +1253,13 @@
         <v>44441</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1257,13 +1270,13 @@
         <v>44442</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1274,42 +1287,82 @@
         <v>44445</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13">
+        <v>44446</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F8" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="7">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13">
+        <v>44447</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="7">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13">
+        <v>44448</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="C11" s="13">
+        <v>44449</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="7"/>
@@ -2279,7 +2332,7 @@
     <row r="1" ht="15.25"/>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2288,19 +2341,19 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:6">

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>SlNo</t>
   </si>
@@ -71,6 +71,21 @@
     <t>Constructor with examples.</t>
   </si>
   <si>
+    <t>Servlets with examples.</t>
+  </si>
+  <si>
+    <t>Multi-threading.</t>
+  </si>
+  <si>
+    <t>Basic interview questions.</t>
+  </si>
+  <si>
+    <t>Solving Java Puzzles.</t>
+  </si>
+  <si>
+    <t>Revised Data Structure algorithms.</t>
+  </si>
+  <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
 </sst>
@@ -79,9 +94,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
@@ -111,7 +126,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,6 +134,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,10 +154,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,29 +217,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -241,6 +241,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,13 +290,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,7 +308,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,43 +356,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,25 +410,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,55 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,148 +719,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1191,8 +1206,8 @@
   <sheetPr/>
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1365,77 +1380,141 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="7">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13">
+        <v>44452</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="7">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13">
+        <v>44453</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="7">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13">
+        <v>44454</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="7">
+        <v>12</v>
+      </c>
+      <c r="C15" s="13">
+        <v>44455</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="7">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13">
+        <v>44456</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="7">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13">
+        <v>44459</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="7"/>
+      <c r="B18" s="7">
+        <v>15</v>
+      </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="7"/>
+      <c r="B19" s="7">
+        <v>16</v>
+      </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="7"/>
+      <c r="B20" s="7">
+        <v>17</v>
+      </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="7"/>
+      <c r="B21" s="7">
+        <v>18</v>
+      </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="7"/>
+      <c r="B22" s="7">
+        <v>19</v>
+      </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2332,7 +2411,7 @@
     <row r="1" ht="15.25"/>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t>SlNo</t>
   </si>
@@ -86,6 +86,21 @@
     <t>Revised Data Structure algorithms.</t>
   </si>
   <si>
+    <t xml:space="preserve">Core java:Static </t>
+  </si>
+  <si>
+    <t>Logical Programs solving.</t>
+  </si>
+  <si>
+    <t>4hrs</t>
+  </si>
+  <si>
+    <t>Spring:Dependency Injection and DAO concepts.</t>
+  </si>
+  <si>
+    <t>Spring:JDBC</t>
+  </si>
+  <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
 </sst>
@@ -94,11 +109,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -125,8 +140,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,8 +155,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,25 +178,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,19 +209,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,28 +263,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -263,7 +278,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,7 +305,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,37 +329,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,13 +377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,31 +419,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,61 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,15 +630,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,17 +682,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,161 +708,174 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -884,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,7 +1222,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1471,42 +1486,74 @@
       <c r="C17" s="13">
         <v>44459</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="D17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="7">
         <v>15</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="C18" s="13">
+        <v>44460</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="C19" s="13">
+        <v>44461</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="C20" s="13">
+        <v>44462</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="13">
+        <v>44463</v>
+      </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
@@ -2411,7 +2458,7 @@
     <row r="1" ht="15.25"/>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>SlNo</t>
   </si>
@@ -101,6 +101,9 @@
     <t>Spring:JDBC</t>
   </si>
   <si>
+    <t>SpringBoot with example.</t>
+  </si>
+  <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
 </sst>
@@ -110,10 +113,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -140,9 +143,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,24 +165,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +175,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +218,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -233,30 +250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,6 +264,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -276,7 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -305,7 +308,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,25 +332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,91 +344,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +362,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,31 +422,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,6 +697,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -704,21 +722,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,148 +737,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -899,7 +902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,7 +1225,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1554,9 +1557,15 @@
       <c r="C21" s="13">
         <v>44463</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="D21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="7">
@@ -2458,7 +2467,7 @@
     <row r="1" ht="15.25"/>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t>SlNo</t>
   </si>
@@ -104,6 +104,15 @@
     <t>SpringBoot with example.</t>
   </si>
   <si>
+    <t>Flowable</t>
+  </si>
+  <si>
+    <t>Processes:Human task</t>
+  </si>
+  <si>
+    <t>Oops concepts with example.</t>
+  </si>
+  <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
 </sst>
@@ -112,11 +121,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -143,9 +152,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,15 +174,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,13 +185,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,22 +237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -259,6 +246,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,6 +287,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -308,67 +317,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,49 +353,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,25 +389,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,7 +437,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,6 +646,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -672,26 +690,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,151 +732,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -902,7 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,8 +1233,8 @@
   <sheetPr/>
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1571,17 +1580,35 @@
       <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="C22" s="13">
+        <v>44466</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="7">
+        <v>20</v>
+      </c>
+      <c r="C23" s="13">
+        <v>44466</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="7"/>
@@ -2467,7 +2494,7 @@
     <row r="1" ht="15.25"/>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <t>SlNo</t>
   </si>
@@ -113,6 +113,9 @@
     <t>Oops concepts with example.</t>
   </si>
   <si>
+    <t>Spring MVC.</t>
+  </si>
+  <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
 </sst>
@@ -122,10 +125,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -152,11 +155,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,10 +176,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,6 +240,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,23 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,8 +284,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,51 +294,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,13 +320,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,25 +392,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,19 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,79 +476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,25 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,32 +652,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,16 +703,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -727,8 +730,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,148 +749,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1234,7 +1237,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1611,11 +1614,21 @@
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="7">
+        <v>21</v>
+      </c>
+      <c r="C24" s="13">
+        <v>44467</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="7"/>
@@ -2494,7 +2507,7 @@
     <row r="1" ht="15.25"/>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>SlNo</t>
   </si>
@@ -116,6 +116,9 @@
     <t>Spring MVC.</t>
   </si>
   <si>
+    <t>Example process.</t>
+  </si>
+  <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
 </sst>
@@ -124,11 +127,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -162,8 +165,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +182,51 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,8 +240,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,62 +287,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -271,29 +297,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,7 +323,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +365,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,31 +467,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,127 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,38 +655,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,15 +681,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,6 +709,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -746,151 +734,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -914,7 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,8 +1239,8 @@
   <sheetPr/>
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1631,15 +1634,29 @@
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="7">
+        <v>22</v>
+      </c>
+      <c r="C25" s="13">
+        <v>44468</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
+      <c r="B26" s="7">
+        <v>23</v>
+      </c>
+      <c r="C26" s="13">
+        <v>44469</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
@@ -2507,7 +2524,7 @@
     <row r="1" ht="15.25"/>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_September_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>SlNo</t>
   </si>
@@ -127,9 +127,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
@@ -159,22 +159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,13 +167,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,9 +187,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,21 +207,6 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,8 +234,46 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,24 +287,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,13 +323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,13 +341,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,31 +365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +401,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,84 +498,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,39 +652,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -726,11 +693,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,151 +729,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1240,7 +1240,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1657,9 +1657,15 @@
       <c r="C26" s="13">
         <v>44469</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
+      <c r="D26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="7"/>
